--- a/sources/case/Reshuffle_logs.xlsx
+++ b/sources/case/Reshuffle_logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>CaseID</t>
   </si>
@@ -47,57 +47,57 @@
     <t>Method</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>contentType</t>
   </si>
   <si>
     <t>application/json</t>
   </si>
   <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>${AddMem_1.uuid}</t>
-  </si>
-  <si>
-    <t>total_count</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Reshuffle_logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reshuffle_logs_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reshuffle_logs_2</t>
-  </si>
-  <si>
-    <t>${AddMem_2.uuid}</t>
-  </si>
-  <si>
-    <t>target_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> /hr/v1/reshuffle_logs?target_id={target_id}&amp;target_type={target_type}</t>
+    <t>items[0].related_form_record_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs_Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs_Formal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/v1/reshuffle_logs?target_id={employee_id}&amp;target_type=employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Adjust.employee_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs_Formal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Formal.employee_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?temp{Adjust.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?temp{Formal.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,27 +460,27 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -492,50 +492,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -546,49 +536,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Reshuffle_logs.xlsx
+++ b/sources/case/Reshuffle_logs.xlsx
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,6 +119,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,8 +150,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,56 +440,57 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -495,36 +506,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -539,41 +551,43 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/Reshuffle_logs.xlsx
+++ b/sources/case/Reshuffle_logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -439,18 +439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
